--- a/biology/Zoologie/Francesco_Cetti/Francesco_Cetti.xlsx
+++ b/biology/Zoologie/Francesco_Cetti/Francesco_Cetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Cetti (9 août 1726 à Mannheim - 20 novembre 1778 à Sassari) est un prêtre jésuite, zoologiste et mathématicien italien.
 Une famille de passereaux, les Cettiidae, le genre type pour la famille Cettia et l'espèce type pour le genre Cettia cetti lui sont dédiés.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 9 août 1726 à Mannheim, d’une famille originaire de Côme, il embrassa jeune la règle de saint Ignace, et, suivant l’usage de l’institut, régenta dans divers collèges. En 1760, le roi de Sardaigne, voulant faire jouir ses sujets de cette île d’une instruction plus développée, demanda des jésuites pour y professer les hautes sciences : et le P. Cetti y fut envoyé avec quelques-uns de ses confréres. Il y remplit avec succès la chaire de philosophie au collège de Sassari.
 </t>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Doué de l’esprit d’observation et d’une ardeur infatigable pour l’étude, Cetti consacra ses loisirs à l’histoire naturelle, et le premier fit connaître celle de la Sardaigne dans les ouvrages suivants :
 I Quadrupedi di Sardegna, Sassari, 1774, in-8°. Ce volume, rempli d’érudition et de recherches curieuses, est orné d’une carte de l’île et de quatre planches représentant les animaux les plus rares. A la tête est une courte description de la Sardaigne.
